--- a/examples/optimization/scipy/Peetz_Logan_coord.xlsx
+++ b/examples/optimization/scipy/Peetz_Logan_coord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB94698B-3B6F-46BC-9AB5-AD12F5BF0E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6363AABC-279C-4ED1-A840-9909E22865A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65342BB3-3ED6-4B00-B9AF-A8BCB84F6250}"/>
   </bookViews>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:Y135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
